--- a/downloaded_files/MDPS355_Lecture-35680.xlsx
+++ b/downloaded_files/MDPS355_Lecture-35680.xlsx
@@ -93,6 +93,15 @@
     <x:t>Seif Alaa Eldin Samir Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1230051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن احمد مصطفى كامل البنا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abdelrahman ahmed mostafa</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230056</x:t>
   </x:si>
   <x:si>
@@ -181,15 +190,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Mostafa Ibrahim Elrayes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230222</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر وليد محمود عبد الرؤف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Walid Mahmoud Abdelraouf</x:t>
   </x:si>
   <x:si>
     <x:t>1210371</x:t>
@@ -1071,7 +1071,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.4516988426</x:v>
+        <x:v>45907.4381296296</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1103,7 +1103,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4141627662</x:v>
+        <x:v>45914.4516988426</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1135,7 +1135,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4178491551</x:v>
+        <x:v>45907.4141627662</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1167,7 +1167,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45917.6297919329</x:v>
+        <x:v>45907.4178491551</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1199,7 +1199,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4144332523</x:v>
+        <x:v>45917.6297919329</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1231,7 +1231,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45907.4144332523</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1263,7 +1263,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4152890856</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1295,7 +1295,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4151501157</x:v>
+        <x:v>45907.4152890856</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1327,7 +1327,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4180099537</x:v>
+        <x:v>45907.4151501157</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1359,7 +1359,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.958293206</x:v>
+        <x:v>45907.4180099537</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1391,7 +1391,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4145161227</x:v>
+        <x:v>45915.958293206</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>

--- a/downloaded_files/MDPS355_Lecture-35680.xlsx
+++ b/downloaded_files/MDPS355_Lecture-35680.xlsx
@@ -1958,11 +1958,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Dynamics of Machine Components (MDPS355) Location : [18201]18201-45-الجيزة الرئيسي Time : Wednesday(11:13)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Dynamics of Machine Components (MDPS355) Location : [14503]14503-50-الجيزة الرئيسي Time : Wednesday(11:13)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Dynamics of Machine Components (MDPS355) Location : [18201]18201-45-الجيزة الرئيسي Time : Wednesday(11:13)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Dynamics of Machine Components (MDPS355) Location : [14503]14503-50-الجيزة الرئيسي Time : Wednesday(11:13)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Dynamics of Machine Components (MDPS355) Location : [18201]18201-45-الجيزة الرئيسي Time : Wednesday(11:13)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Dynamics of Machine Components (MDPS355) Location : [14503]14503-50-الجيزة الرئيسي Time : Wednesday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">

--- a/downloaded_files/MDPS355_Lecture-35680.xlsx
+++ b/downloaded_files/MDPS355_Lecture-35680.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -325,6 +325,15 @@
   </x:si>
   <x:si>
     <x:t>Malak Mohsen Hussein Ismail Kazem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220318</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور احمد شمس الدين محمد سالم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Ahmed Shamseldin Mohamed Salem</x:t>
   </x:si>
   <x:si>
     <x:t>1210358</x:t>
@@ -458,7 +467,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -758,7 +767,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1903,7 +1912,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45926.4404334491</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1935,7 +1944,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4150058681</x:v>
+        <x:v>45907.4196388889</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1952,6 +1961,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45907.4150058681</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS355_Lecture-35680.xlsx
+++ b/downloaded_files/MDPS355_Lecture-35680.xlsx
@@ -922,7 +922,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4154818634</x:v>
+        <x:v>45927.4282048264</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1592,7 +1592,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4189993056</x:v>
+        <x:v>45927.4336868403</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1656,7 +1656,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4192552083</x:v>
+        <x:v>45927.4255918171</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>

--- a/downloaded_files/MDPS355_Lecture-35680.xlsx
+++ b/downloaded_files/MDPS355_Lecture-35680.xlsx
@@ -1496,7 +1496,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4149471875</x:v>
+        <x:v>45933.5585101852</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>

--- a/downloaded_files/MDPS355_Lecture-35680.xlsx
+++ b/downloaded_files/MDPS355_Lecture-35680.xlsx
@@ -54,7 +54,7 @@
     <x:t>1230179</x:t>
   </x:si>
   <x:si>
-    <x:t>حمزة محمد سيد حسن</x:t>
+    <x:t>حمزة محمد سيد على على حسن</x:t>
   </x:si>
   <x:si>
     <x:t>Hamza Mohamed Sayed Aly Aly Hassan</x:t>
